--- a/data/fractionation/Quant/221222 Batch 133 IJKL Water Yr Quant.xlsx
+++ b/data/fractionation/Quant/221222 Batch 133 IJKL Water Yr Quant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SIP Pipeline\Mike\221214 Batch 133 Water Yr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B5043B-857B-426A-B19F-D36D9339DCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC77E4-307E-441E-8AAF-615DB8ED4746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="947" windowWidth="25580" windowHeight="13453" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1" sheetId="10" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -465,8 +465,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +510,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -513,10 +525,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -540,8 +553,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7952,9 +7967,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7992,9 +8007,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8027,26 +8042,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8079,26 +8077,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8278,13 +8259,13 @@
       <selection activeCell="N9" sqref="N9:N96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -8577,7 +8558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8870,12 +8851,12 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -8907,7 +8888,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -8949,7 +8930,7 @@
         <v>-1.2870565017804281</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8992,7 +8973,7 @@
         <v>-0.61778712085460552</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -9035,7 +9016,7 @@
         <v>-0.2059290402848685</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -9078,7 +9059,7 @@
         <v>3.071774850915955</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -9121,7 +9102,7 @@
         <v>12.527349950662835</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9164,7 +9145,7 @@
         <v>28.624136599596717</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -9203,7 +9184,7 @@
         <v>79.248359002960228</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -9237,7 +9218,7 @@
         <v>169.73701145480288</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -9264,7 +9245,7 @@
         <v>378.89227337080092</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -9291,7 +9272,7 @@
         <v>490.6945814921275</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -9318,7 +9299,7 @@
         <v>338.8733965421082</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -9345,7 +9326,7 @@
         <v>182.86498777296322</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -9372,7 +9353,7 @@
         <v>54.742803209060881</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9399,7 +9380,7 @@
         <v>29.190441460380111</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -9426,7 +9407,7 @@
         <v>19.854991634132737</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -9453,7 +9434,7 @@
         <v>10.811274614955597</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -9480,7 +9461,7 @@
         <v>4.8393324466944101</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -9507,7 +9488,7 @@
         <v>3.9469732721266459</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -9534,7 +9515,7 @@
         <v>7.2933201767557598</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -9561,7 +9542,7 @@
         <v>3.9641340254837187</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -9588,7 +9569,7 @@
         <v>1.836200609206744</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -9615,7 +9596,7 @@
         <v>0.30889356042730276</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -9642,7 +9623,7 @@
         <v>-1.561628555493586</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -9669,7 +9650,7 @@
         <v>-1.2184134883521387</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -9696,7 +9677,7 @@
         <v>-1.561628555493586</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -9723,7 +9704,7 @@
         <v>1.0982882148526321</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -9750,7 +9731,7 @@
         <v>18.121755545068428</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -9777,7 +9758,7 @@
         <v>42.816079625895576</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -9804,7 +9785,7 @@
         <v>67.441760693294427</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9831,7 +9812,7 @@
         <v>145.04268737397572</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -9858,7 +9839,7 @@
         <v>391.83148140203349</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9885,7 +9866,7 @@
         <v>557.48423355785326</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -9912,7 +9893,7 @@
         <v>383.78308807756662</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -9939,7 +9920,7 @@
         <v>215.72783045175683</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -9966,7 +9947,7 @@
         <v>77.309193873611051</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -9993,7 +9974,7 @@
         <v>51.25917027757518</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -10020,7 +10001,7 @@
         <v>20.318331974773692</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -10047,7 +10028,7 @@
         <v>11.892402076451155</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -10074,7 +10055,7 @@
         <v>6.2979964820455612</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -10101,7 +10082,7 @@
         <v>3.7582049851988502</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -10128,7 +10109,7 @@
         <v>4.3416705993393103</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -10155,7 +10136,7 @@
         <v>4.2387060791968771</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -10182,7 +10163,7 @@
         <v>3.5007936848427645</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -10209,7 +10190,7 @@
         <v>-0.29173280707023036</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10236,7 +10217,7 @@
         <v>-0.90951992792483582</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -10263,7 +10244,7 @@
         <v>-0.90951992792483582</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -10290,7 +10271,7 @@
         <v>-0.48050109399802649</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -10317,7 +10298,7 @@
         <v>-0.18876828692779613</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -10344,7 +10325,7 @@
         <v>6.7956583294006601</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -10371,7 +10352,7 @@
         <v>24.436912780471062</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -10398,7 +10379,7 @@
         <v>70.599339310995759</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -10425,7 +10406,7 @@
         <v>164.58878544768115</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -10452,7 +10433,7 @@
         <v>425.94705907589343</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -10479,7 +10460,7 @@
         <v>833.13741473250673</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -10506,7 +10487,7 @@
         <v>694.8217426745033</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -10533,7 +10514,7 @@
         <v>422.61787292462139</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -10560,7 +10541,7 @@
         <v>165.18941181517869</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -10587,7 +10568,7 @@
         <v>72.675790467201509</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -10614,7 +10595,7 @@
         <v>42.009524218113171</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -10641,7 +10622,7 @@
         <v>25.569522502037838</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -10668,7 +10649,7 @@
         <v>12.35574241709211</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -10695,7 +10676,7 @@
         <v>6.2979964820455612</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -10722,7 +10703,7 @@
         <v>7.9282680509674375</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -10749,7 +10730,7 @@
         <v>9.0780385258912872</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -10776,7 +10757,7 @@
         <v>4.0499377922690805</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -10803,7 +10784,7 @@
         <v>1.7332360890643097</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -10830,7 +10811,7 @@
         <v>-1.784718349135527</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -10857,7 +10838,7 @@
         <v>-0.46334034064095414</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -10884,7 +10865,7 @@
         <v>-1.5273070487794413</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -10911,7 +10892,7 @@
         <v>0.70359088763996747</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -10938,7 +10919,7 @@
         <v>6.2121927152601994</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -10965,7 +10946,7 @@
         <v>18.018791024925992</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -10992,7 +10973,7 @@
         <v>38.817624093697709</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -11019,7 +11000,7 @@
         <v>81.513578446093788</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -11046,7 +11027,7 @@
         <v>318.17752799347892</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -11073,7 +11054,7 @@
         <v>584.15204427474362</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -11100,7 +11081,7 @@
         <v>522.85383328328112</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -11127,7 +11108,7 @@
         <v>314.09326869449569</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -11154,7 +11135,7 @@
         <v>121.03479342743145</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -11181,7 +11162,7 @@
         <v>49.302844394868934</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -11208,7 +11189,7 @@
         <v>24.213822986829122</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -11235,7 +11216,7 @@
         <v>14.844051653867606</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -11262,7 +11243,7 @@
         <v>8.7691449654639833</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -11289,7 +11270,7 @@
         <v>7.9111072976103642</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -11316,7 +11297,7 @@
         <v>8.202840104680595</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -11343,7 +11324,7 @@
         <v>6.8471405894718771</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -11370,7 +11351,7 @@
         <v>2.9344888240593758</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -11397,7 +11378,7 @@
         <v>1.1840919816379938</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -11405,7 +11386,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -11413,7 +11394,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -11421,7 +11402,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -11429,7 +11410,7 @@
         <v>28072</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -11437,7 +11418,7 @@
         <v>13071</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -11445,7 +11426,7 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -11453,7 +11434,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -11477,13 +11458,13 @@
       <selection activeCell="N9" sqref="N9:N96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -11776,7 +11757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -12069,12 +12050,12 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="7" spans="1:98" ht="17.350000000000001" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:98" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="N7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -12106,7 +12087,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -12145,7 +12126,7 @@
         <v>-1.097757168543579</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -12184,7 +12165,7 @@
         <v>-0.70029336613986937</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -12223,7 +12204,7 @@
         <v>-0.30282956373615971</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -12262,7 +12243,7 @@
         <v>3.406832592031797</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -12301,7 +12282,7 @@
         <v>13.286647108924008</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -12340,7 +12321,7 @@
         <v>30.68042017601968</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -12379,7 +12360,7 @@
         <v>85.890035014668314</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -12413,7 +12394,7 @@
         <v>168.60035961010692</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -12440,7 +12421,7 @@
         <v>392.46711460206302</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -12467,7 +12448,7 @@
         <v>509.60537522475636</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -12494,7 +12475,7 @@
         <v>364.15255039273205</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -12521,7 +12502,7 @@
         <v>199.56468250212924</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -12548,7 +12529,7 @@
         <v>59.184252862685717</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -12575,7 +12556,7 @@
         <v>34.314374940853597</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -12602,7 +12583,7 @@
         <v>21.974070218605092</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -12629,7 +12610,7 @@
         <v>12.49171950411659</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -12656,7 +12637,7 @@
         <v>8.4224472414119429</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -12683,7 +12664,7 @@
         <v>4.2774675877732555</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -12710,7 +12691,7 @@
         <v>3.255417810163717</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -12737,7 +12718,7 @@
         <v>2.8958077032270273</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12764,7 +12745,7 @@
         <v>2.0440995552190784</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -12791,7 +12772,7 @@
         <v>0.11356108640105989</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -12818,7 +12799,7 @@
         <v>-1.8169773824169582</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -12845,7 +12826,7 @@
         <v>-1.6466357528153686</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -12872,7 +12853,7 @@
         <v>-1.9116116210845082</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -12899,7 +12880,7 @@
         <v>0.73814706160688925</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -12926,7 +12907,7 @@
         <v>19.702848490583893</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -12953,7 +12934,7 @@
         <v>53.165515283429542</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -12980,7 +12961,7 @@
         <v>75.745244629506942</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -13007,7 +12988,7 @@
         <v>153.610296205167</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13034,7 +13015,7 @@
         <v>428.65524746853407</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -13061,7 +13042,7 @@
         <v>623.39358379861824</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -13088,7 +13069,7 @@
         <v>425.91085454717518</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -13115,7 +13096,7 @@
         <v>236.2449134096716</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -13142,7 +13123,7 @@
         <v>85.606132298665642</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -13169,7 +13150,7 @@
         <v>42.623261095864478</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -13196,7 +13177,7 @@
         <v>22.5608024983439</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -13223,7 +13204,7 @@
         <v>12.718841676918709</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -13250,7 +13231,7 @@
         <v>6.643323554462004</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -13277,7 +13258,7 @@
         <v>3.7475158512349767</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -13304,7 +13285,7 @@
         <v>4.1828333491057066</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -13331,7 +13312,7 @@
         <v>4.3153212832402756</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -13358,7 +13339,7 @@
         <v>3.993564871770606</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -13385,7 +13366,7 @@
         <v>-0.11356108640105989</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -13412,7 +13393,7 @@
         <v>-0.75707390934039931</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -13439,7 +13420,7 @@
         <v>-1.0220497776095392</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -13466,7 +13447,7 @@
         <v>-0.52995173653827954</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -13493,7 +13474,7 @@
         <v>0.45424434560423954</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -13520,7 +13501,7 @@
         <v>8.1763982208763135</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -13547,7 +13528,7 @@
         <v>26.421879435979939</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -13574,7 +13555,7 @@
         <v>79.057442982871194</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -13601,7 +13582,7 @@
         <v>181.16778650515755</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -13628,7 +13609,7 @@
         <v>470.93782530519542</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -13655,7 +13636,7 @@
         <v>907.54234882180367</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -13682,7 +13663,7 @@
         <v>730.86022522948792</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -13709,7 +13690,7 @@
         <v>451.23497681461151</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -13736,7 +13717,7 @@
         <v>174.33519447336045</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -13763,7 +13744,7 @@
         <v>78.868174505536103</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -13790,7 +13771,7 @@
         <v>45.840825210561178</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -13817,7 +13798,7 @@
         <v>26.743635847449603</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -13844,7 +13825,7 @@
         <v>13.229866565723478</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -13871,7 +13852,7 @@
         <v>8.1006908299422733</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -13898,7 +13879,7 @@
         <v>8.7631305006151212</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -13925,7 +13906,7 @@
         <v>10.8072300558342</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -13952,7 +13933,7 @@
         <v>5.0534683448471647</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -13979,7 +13960,7 @@
         <v>1.9116116210845082</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -14006,7 +13987,7 @@
         <v>-1.9873190120185482</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -14033,7 +14014,7 @@
         <v>-0.68136651840635942</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -14060,7 +14041,7 @@
         <v>-1.6466357528153686</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -14087,7 +14068,7 @@
         <v>0.49209804107125954</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -14114,7 +14095,7 @@
         <v>6.0565912747231945</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -14141,7 +14122,7 @@
         <v>18.264408062837134</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -14168,7 +14149,7 @@
         <v>39.935648717706066</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -14195,7 +14176,7 @@
         <v>85.132961105327908</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -14222,7 +14203,7 @@
         <v>348.65146209898739</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -14249,7 +14230,7 @@
         <v>634.40900917952115</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -14276,7 +14257,7 @@
         <v>570.26592221065573</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -14303,7 +14284,7 @@
         <v>344.033311252011</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -14330,7 +14311,7 @@
         <v>132.50686098230341</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -14357,7 +14338,7 @@
         <v>54.69858994984385</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -14384,7 +14365,7 @@
         <v>28.087442036528817</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -14411,7 +14392,7 @@
         <v>16.825967635090375</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -14438,7 +14419,7 @@
         <v>9.7094728872906213</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -14465,7 +14446,7 @@
         <v>8.725276805148102</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -14492,7 +14473,7 @@
         <v>9.1227406075518118</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -14519,7 +14500,7 @@
         <v>7.4761048547364428</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -14546,7 +14527,7 @@
         <v>2.7443929213589473</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -14573,7 +14554,7 @@
         <v>0.92741553894198914</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -14581,7 +14562,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -14589,7 +14570,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -14597,7 +14578,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -14605,7 +14586,7 @@
         <v>27236</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -14613,7 +14594,7 @@
         <v>12606</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -14621,7 +14602,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -14629,7 +14610,7 @@
         <v>5505</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -14652,13 +14633,13 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -14951,7 +14932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -15244,12 +15225,12 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -15281,7 +15262,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -15320,7 +15301,7 @@
         <v>-1.3764756488075323</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -15359,7 +15340,7 @@
         <v>-1.2235339100511398</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -15398,7 +15379,7 @@
         <v>-1.3764756488075323</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -15437,7 +15418,7 @@
         <v>4.1485446637671455</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15476,7 +15457,7 @@
         <v>13.000047794293362</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -15515,7 +15496,7 @@
         <v>28.275103952588058</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -15554,7 +15535,7 @@
         <v>82.81795153658652</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -15588,7 +15569,7 @@
         <v>167.60502795966161</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -15615,7 +15596,7 @@
         <v>389.79113893801076</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -15642,7 +15623,7 @@
         <v>493.50475553218939</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -15669,7 +15650,7 @@
         <v>349.73952110118046</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -15696,7 +15677,7 @@
         <v>189.11245997227928</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -15723,7 +15704,7 @@
         <v>57.334034316302635</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -15750,7 +15731,7 @@
         <v>31.047172967547674</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -15777,7 +15758,7 @@
         <v>21.010371361659416</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -15804,7 +15785,7 @@
         <v>11.107393777183002</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -15831,7 +15812,7 @@
         <v>5.0088419442718539</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -15858,7 +15839,7 @@
         <v>3.5558954260861246</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -15885,7 +15866,7 @@
         <v>3.2308942312287909</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -15912,7 +15893,7 @@
         <v>2.504420972135927</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -15939,7 +15920,7 @@
         <v>1.3764756488075323</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -15966,7 +15947,7 @@
         <v>-1.0705921712947473</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -15993,7 +15974,7 @@
         <v>-1.7205945610094153</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -16020,7 +16001,7 @@
         <v>-1.4529465181857284</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -16047,7 +16028,7 @@
         <v>-1.4338288008411795</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -16074,7 +16055,7 @@
         <v>1.5485351049084739</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -16101,7 +16082,7 @@
         <v>18.964775605792667</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -16128,7 +16109,7 @@
         <v>44.773694020933902</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -16155,7 +16136,7 @@
         <v>71.404674281890735</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -16182,7 +16163,7 @@
         <v>145.73435931749748</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -16209,7 +16190,7 @@
         <v>409.73091812837544</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -16236,7 +16217,7 @@
         <v>583.70214596377184</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -16263,7 +16244,7 @@
         <v>403.00148162309421</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -16290,7 +16271,7 @@
         <v>226.77436314104096</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -16317,7 +16298,7 @@
         <v>83.047364144721115</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -16344,7 +16325,7 @@
         <v>40.911915117334985</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -16371,7 +16352,7 @@
         <v>20.475075276012042</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -16398,7 +16379,7 @@
         <v>11.700043014864024</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -16425,7 +16406,7 @@
         <v>6.8632605266931126</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -16452,7 +16433,7 @@
         <v>3.9956029250107532</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -16479,7 +16460,7 @@
         <v>5.6970797686756196</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -16506,7 +16487,7 @@
         <v>6.1750227022893451</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -16533,7 +16514,7 @@
         <v>2.7720690149596132</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -16560,7 +16541,7 @@
         <v>-0.68823782440376613</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -16587,7 +16568,7 @@
         <v>-0.11470630406729436</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -16614,7 +16595,7 @@
         <v>-0.76470869378196238</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -16641,7 +16622,7 @@
         <v>-1.1279453233283945</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -16668,7 +16649,7 @@
         <v>-0.28676576016823591</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -16695,7 +16676,7 @@
         <v>6.8823782440376613</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -16722,7 +16703,7 @@
         <v>26.611862543612293</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -16749,7 +16730,7 @@
         <v>73.239975146967438</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -16776,7 +16757,7 @@
         <v>167.6432633943507</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -16803,7 +16784,7 @@
         <v>462.2472876738517</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -16830,7 +16811,7 @@
         <v>847.35458586244795</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -16857,7 +16838,7 @@
         <v>699.19227644219279</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -16884,7 +16865,7 @@
         <v>437.56631458203884</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -16911,7 +16892,7 @@
         <v>172.02122066625242</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -16938,7 +16919,7 @@
         <v>76.814988290398119</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -16965,7 +16946,7 @@
         <v>43.951632175118291</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -16992,7 +16973,7 @@
         <v>25.541270372317545</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -17019,7 +17000,7 @@
         <v>12.464751708645988</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -17046,7 +17027,7 @@
         <v>6.117669550255699</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -17073,7 +17054,7 @@
         <v>8.5265019356688807</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -17100,7 +17081,7 @@
         <v>9.5015055202408831</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -17127,7 +17108,7 @@
         <v>5.3147254217846385</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -17154,7 +17135,7 @@
         <v>0.7264732590928642</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -17181,7 +17162,7 @@
         <v>-0.82206184581560948</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -17208,7 +17189,7 @@
         <v>-1.7588299956985134</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -17235,7 +17216,7 @@
         <v>-1.4911819528748267</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -17262,7 +17243,7 @@
         <v>-0.30588347751278494</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -17289,7 +17270,7 @@
         <v>6.1367872676002477</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -17316,7 +17297,7 @@
         <v>16.823591263203173</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -17343,7 +17324,7 @@
         <v>39.229555991014671</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -17370,7 +17351,7 @@
         <v>81.976771973426366</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -17397,7 +17378,7 @@
         <v>340.19978014625053</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -17424,7 +17405,7 @@
         <v>601.65368255030342</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -17451,7 +17432,7 @@
         <v>535.42990966878551</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -17478,7 +17459,7 @@
         <v>324.25560388089656</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -17505,7 +17486,7 @@
         <v>126.94164316780575</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -17532,7 +17513,7 @@
         <v>51.751660851694304</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -17559,7 +17540,7 @@
         <v>26.917746021125076</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -17586,7 +17567,7 @@
         <v>14.452994312479088</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -17613,7 +17594,7 @@
         <v>8.4117956316015867</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -17640,7 +17621,7 @@
         <v>5.620608899297423</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -17667,7 +17648,7 @@
         <v>6.8059073746594656</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -17694,7 +17675,7 @@
         <v>6.4044353104239349</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -17721,7 +17702,7 @@
         <v>3.0014816230942021</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -17748,7 +17729,7 @@
         <v>0.84117956316015863</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -17756,7 +17737,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -17764,7 +17745,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -17772,7 +17753,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -17780,7 +17761,7 @@
         <v>26214</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -17788,7 +17769,7 @@
         <v>12324</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -17796,7 +17777,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -17804,7 +17785,7 @@
         <v>5378</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -17823,23 +17804,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C54" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68:G89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.41015625" customWidth="1"/>
-    <col min="3" max="3" width="13.1171875" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.1171875" customWidth="1"/>
-    <col min="7" max="8" width="14.703125" customWidth="1"/>
-    <col min="9" max="9" width="15.29296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3828125" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.07421875" customWidth="1"/>
+    <col min="7" max="8" width="14.69140625" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -17880,7 +17861,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -17921,7 +17902,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -17959,7 +17940,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -17997,7 +17978,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -18035,7 +18016,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -18073,7 +18054,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -18111,7 +18092,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -18149,7 +18130,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -18187,7 +18168,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -18225,7 +18206,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -18263,7 +18244,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -18301,7 +18282,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -18339,7 +18320,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -18374,7 +18355,7 @@
         <v>57.087030129349728</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -18409,7 +18390,7 @@
         <v>31.517329789593798</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -18444,7 +18425,7 @@
         <v>20.946477738132415</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -18479,7 +18460,7 @@
         <v>11.470129298751729</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -18514,7 +18495,7 @@
         <v>6.0902072107927356</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -18549,7 +18530,7 @@
         <v>3.926778761995342</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -18571,20 +18552,20 @@
         <f>'Plate 3'!N27</f>
         <v>8.0772355780719771E-2</v>
       </c>
-      <c r="G20" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1148302684845689</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="1"/>
-        <v>5.8459887860309895E-2</v>
+      <c r="G20" s="15">
+        <f>AVERAGE(E20:F20)</f>
+        <v>8.1078900517406349E-2</v>
+      </c>
+      <c r="H20" s="15">
+        <f>STDEV(E20:F20)</f>
+        <v>4.3351972409624883E-4</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
-        <v>4.5932107393827559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>3.243156020696254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -18619,7 +18600,7 @@
         <v>3.1214542336155575</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -18654,7 +18635,7 @@
         <v>1.7522586044111179</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -18690,14 +18671,14 @@
       </c>
       <c r="J23">
         <f>SUM(I2:I23)</f>
-        <v>1860.9535979118434</v>
+        <v>1859.6035431931568</v>
       </c>
       <c r="K23" t="e">
         <f>J23/L2*100</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -18733,7 +18714,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -18768,7 +18749,7 @@
         <v>-1.4393319197844121</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -18803,7 +18784,7 @@
         <v>-1.6356896591397576</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18838,7 +18819,7 @@
         <v>1.1283234604559984</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -18873,7 +18854,7 @@
         <v>18.929793213814996</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -18908,7 +18889,7 @@
         <v>46.918429643419664</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -18943,7 +18924,7 @@
         <v>71.530559868230711</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -18978,7 +18959,7 @@
         <v>148.12911429888007</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19013,7 +18994,7 @@
         <v>410.07254899964772</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19048,7 +19029,7 @@
         <v>588.19332110674782</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19083,7 +19064,7 @@
         <v>404.23180808261202</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19118,7 +19099,7 @@
         <v>226.24903566748981</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19153,7 +19134,7 @@
         <v>81.987563438999288</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19188,7 +19169,7 @@
         <v>44.931448830258212</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -19223,7 +19204,7 @@
         <v>21.118069916376541</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -19258,7 +19239,7 @@
         <v>12.103762256077964</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -19293,7 +19274,7 @@
         <v>6.6015268544002259</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -19328,7 +19309,7 @@
         <v>3.8337745871481932</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -19363,7 +19344,7 @@
         <v>4.7405279057068785</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -19398,7 +19379,7 @@
         <v>4.9096833549088332</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -19433,7 +19414,7 @@
         <v>3.4221425238576613</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -19476,7 +19457,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -19512,7 +19493,7 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -19547,7 +19528,7 @@
         <v>-0.89875946643877924</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -19582,7 +19563,7 @@
         <v>-0.71279938462156689</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -19617,7 +19598,7 @@
         <v>-7.0965671639308201E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -19652,7 +19633,7 @@
         <v>7.2848115981048789</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -19687,7 +19668,7 @@
         <v>25.82355158668776</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -19722,7 +19703,7 @@
         <v>74.298919146944797</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -19757,7 +19738,7 @@
         <v>171.13327844906311</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -19792,7 +19773,7 @@
         <v>453.04405735164687</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -19827,7 +19808,7 @@
         <v>862.6781164722529</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -19862,7 +19843,7 @@
         <v>708.29141478206122</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -19897,7 +19878,7 @@
         <v>437.13972144042395</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -19932,7 +19913,7 @@
         <v>170.51527565159719</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -19967,7 +19948,7 @@
         <v>76.119651087711915</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -20002,7 +19983,7 @@
         <v>43.93399386793088</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -20037,7 +20018,7 @@
         <v>25.951476240601661</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -20072,7 +20053,7 @@
         <v>12.683453563820526</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -20107,7 +20088,7 @@
         <v>6.8387856207478448</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -20142,7 +20123,7 @@
         <v>8.4059668290838143</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -20177,7 +20158,7 @@
         <v>9.7955913673221229</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -20212,7 +20193,7 @@
         <v>4.8060438529669618</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -20255,7 +20236,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20291,7 +20272,7 @@
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20326,7 +20307,7 @@
         <v>-0.96784561824860904</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20361,7 +20342,7 @@
         <v>-1.5550415848232122</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -20396,7 +20377,7 @@
         <v>0.2966018170661473</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -20431,7 +20412,7 @@
         <v>6.1351904191945472</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -20466,7 +20447,7 @@
         <v>17.7022634503221</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -20501,7 +20482,7 @@
         <v>39.327609600806149</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -20536,7 +20517,7 @@
         <v>82.874437174949364</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20571,7 +20552,7 @@
         <v>335.67625674623889</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20606,7 +20587,7 @@
         <v>606.73824533485606</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20641,7 +20622,7 @@
         <v>542.84988838757408</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20676,7 +20657,7 @@
         <v>327.46072794246771</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20711,7 +20692,7 @@
         <v>126.8277658591802</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20746,7 +20727,7 @@
         <v>51.917698398802365</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20781,7 +20762,7 @@
         <v>26.406337014827667</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20816,7 +20797,7 @@
         <v>15.374337867145691</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -20851,7 +20832,7 @@
         <v>8.9634711614520626</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -20886,7 +20867,7 @@
         <v>7.4189976673519631</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -20921,7 +20902,7 @@
         <v>8.0438293622972914</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -20956,7 +20937,7 @@
         <v>6.9092269182107513</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -20991,7 +20972,7 @@
         <v>2.8934544561708413</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
